--- a/tests/testthat/fixtures/ex1/tables/distractors_summary.xlsx
+++ b/tests/testthat/fixtures/ex1/tables/distractors_summary.xlsx
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>787</v>
+        <v>808</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="3">
@@ -618,10 +618,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.365</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="4">
@@ -632,10 +632,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="D4" t="n">
-        <v>0.402</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="5">
@@ -646,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.415</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="6">
@@ -660,10 +660,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.389</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="7">
@@ -674,10 +674,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.426</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="8">
@@ -688,10 +688,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.42</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="9">
@@ -702,10 +702,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="D9" t="n">
-        <v>0.41</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="10">
@@ -716,10 +716,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="D10" t="n">
-        <v>0.395</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="11">
@@ -730,10 +730,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="D11" t="n">
-        <v>0.398</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12">
@@ -744,10 +744,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D12" t="n">
-        <v>0.402</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="13">
@@ -758,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D13" t="n">
-        <v>0.363</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="14">
@@ -772,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D14" t="n">
         <v>0.343</v>
@@ -786,10 +786,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D15" t="n">
-        <v>0.369</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="16">
@@ -800,10 +800,10 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D16" t="n">
-        <v>0.33</v>
+        <v>0.307</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +842,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.222</v>
+        <v>-0.232</v>
       </c>
     </row>
     <row r="3">
@@ -859,7 +859,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.116</v>
+        <v>-0.103</v>
       </c>
     </row>
     <row r="4">
@@ -870,10 +870,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.165</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="5">
@@ -884,10 +884,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.184</v>
+        <v>-0.171</v>
       </c>
     </row>
     <row r="6">
@@ -898,10 +898,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.207</v>
+        <v>-0.202</v>
       </c>
     </row>
     <row r="7">
@@ -912,7 +912,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
         <v>-0.193</v>
@@ -926,10 +926,10 @@
         <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.196</v>
+        <v>-0.175</v>
       </c>
     </row>
     <row r="9">
@@ -940,10 +940,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.24</v>
+        <v>-0.237</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>74</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.198</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="11">
@@ -968,10 +968,10 @@
         <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2</v>
+        <v>-0.185</v>
       </c>
     </row>
     <row r="12">
@@ -982,10 +982,10 @@
         <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.219</v>
+        <v>-0.221</v>
       </c>
     </row>
     <row r="13">
@@ -996,10 +996,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.228</v>
+        <v>-0.204</v>
       </c>
     </row>
     <row r="14">
@@ -1010,10 +1010,10 @@
         <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.234</v>
+        <v>-0.206</v>
       </c>
     </row>
     <row r="15">
@@ -1024,10 +1024,10 @@
         <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.217</v>
+        <v>-0.204</v>
       </c>
     </row>
     <row r="16">
@@ -1038,10 +1038,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.125</v>
+        <v>-0.135</v>
       </c>
     </row>
     <row r="17">
@@ -1052,10 +1052,10 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.228</v>
+        <v>-0.212</v>
       </c>
     </row>
     <row r="18">
@@ -1066,10 +1066,10 @@
         <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.212</v>
+        <v>-0.195</v>
       </c>
     </row>
     <row r="19">
@@ -1080,10 +1080,10 @@
         <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.184</v>
+        <v>-0.185</v>
       </c>
     </row>
     <row r="20">
@@ -1094,10 +1094,10 @@
         <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.165</v>
+        <v>-0.163</v>
       </c>
     </row>
     <row r="21">
@@ -1108,10 +1108,10 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.205</v>
+        <v>-0.187</v>
       </c>
     </row>
     <row r="22">
@@ -1122,10 +1122,10 @@
         <v>28</v>
       </c>
       <c r="C22" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.229</v>
+        <v>-0.206</v>
       </c>
     </row>
     <row r="23">
@@ -1136,10 +1136,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.167</v>
+        <v>-0.156</v>
       </c>
     </row>
     <row r="24">
@@ -1150,10 +1150,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="25">
@@ -1164,10 +1164,10 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.183</v>
+        <v>-0.174</v>
       </c>
     </row>
     <row r="26">
@@ -1178,10 +1178,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.181</v>
+        <v>-0.194</v>
       </c>
     </row>
     <row r="27">
@@ -1192,10 +1192,10 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.191</v>
+        <v>-0.137</v>
       </c>
     </row>
     <row r="28">
@@ -1206,10 +1206,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.142</v>
+        <v>-0.139</v>
       </c>
     </row>
     <row r="29">
@@ -1220,10 +1220,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.091</v>
+        <v>-0.097</v>
       </c>
     </row>
     <row r="30">
@@ -1234,10 +1234,10 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2</v>
+        <v>-0.176</v>
       </c>
     </row>
     <row r="31">
@@ -1248,10 +1248,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.19</v>
+        <v>-0.194</v>
       </c>
     </row>
     <row r="32">
@@ -1262,10 +1262,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.192</v>
+        <v>-0.194</v>
       </c>
     </row>
     <row r="33">
@@ -1276,10 +1276,10 @@
         <v>24</v>
       </c>
       <c r="C33" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.141</v>
+        <v>-0.158</v>
       </c>
     </row>
     <row r="34">
@@ -1290,10 +1290,10 @@
         <v>28</v>
       </c>
       <c r="C34" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.136</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="35">
@@ -1304,10 +1304,10 @@
         <v>24</v>
       </c>
       <c r="C35" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.177</v>
+        <v>-0.188</v>
       </c>
     </row>
     <row r="36">
@@ -1321,7 +1321,7 @@
         <v>179</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.105</v>
+        <v>-0.079</v>
       </c>
     </row>
     <row r="37">
@@ -1332,10 +1332,10 @@
         <v>28</v>
       </c>
       <c r="C37" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.117</v>
+        <v>-0.122</v>
       </c>
     </row>
     <row r="38">
@@ -1346,10 +1346,10 @@
         <v>33</v>
       </c>
       <c r="C38" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.07</v>
+        <v>-0.116</v>
       </c>
     </row>
     <row r="39">
@@ -1360,10 +1360,10 @@
         <v>24</v>
       </c>
       <c r="C39" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.105</v>
+        <v>-0.123</v>
       </c>
     </row>
     <row r="40">
@@ -1374,10 +1374,10 @@
         <v>28</v>
       </c>
       <c r="C40" t="n">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.165</v>
+        <v>-0.098</v>
       </c>
     </row>
     <row r="41">
@@ -1388,10 +1388,10 @@
         <v>33</v>
       </c>
       <c r="C41" t="n">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.043</v>
+        <v>-0.127</v>
       </c>
     </row>
     <row r="42">
@@ -1405,7 +1405,7 @@
         <v>143</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.114</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="43">
@@ -1416,10 +1416,10 @@
         <v>28</v>
       </c>
       <c r="C43" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.179</v>
+        <v>-0.116</v>
       </c>
     </row>
     <row r="44">
@@ -1430,10 +1430,10 @@
         <v>33</v>
       </c>
       <c r="C44" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.061</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="45">
@@ -1444,10 +1444,10 @@
         <v>26</v>
       </c>
       <c r="C45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.153</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="46">
@@ -1458,10 +1458,10 @@
         <v>28</v>
       </c>
       <c r="C46" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.073</v>
+        <v>-0.123</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         <v>74</v>
       </c>
       <c r="B2" t="n">
-        <v>0.382</v>
+        <v>0.369</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.168</v>
+        <v>-0.161</v>
       </c>
     </row>
     <row r="3">
@@ -1505,10 +1505,10 @@
         <v>75</v>
       </c>
       <c r="B3" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="C3" t="n">
-        <v>0.051</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="4">
@@ -1516,10 +1516,10 @@
         <v>76</v>
       </c>
       <c r="B4" t="n">
-        <v>0.395</v>
+        <v>0.376</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.183</v>
+        <v>-0.175</v>
       </c>
     </row>
     <row r="5">
@@ -1527,10 +1527,10 @@
         <v>77</v>
       </c>
       <c r="B5" t="n">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.24</v>
+        <v>-0.237</v>
       </c>
     </row>
     <row r="6">
@@ -1538,10 +1538,10 @@
         <v>78</v>
       </c>
       <c r="B6" t="n">
-        <v>0.426</v>
+        <v>0.415</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.043</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
